--- a/mui-master/1.0/FirstFloor.ModernUI/CaoJin.HNFinanceTool/App/excel/mould1.xlsx
+++ b/mui-master/1.0/FirstFloor.ModernUI/CaoJin.HNFinanceTool/App/excel/mould1.xlsx
@@ -140,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +170,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -544,7 +550,7 @@
     </row>
     <row r="3" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -560,7 +566,7 @@
     </row>
     <row r="4" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -576,7 +582,7 @@
     </row>
     <row r="5" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -592,7 +598,7 @@
     </row>
     <row r="6" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -608,7 +614,7 @@
     </row>
     <row r="7" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -624,7 +630,7 @@
     </row>
     <row r="8" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -640,7 +646,7 @@
     </row>
     <row r="9" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -656,7 +662,7 @@
     </row>
     <row r="10" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -672,7 +678,7 @@
     </row>
     <row r="11" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -688,7 +694,7 @@
     </row>
     <row r="12" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -704,7 +710,7 @@
     </row>
     <row r="13" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -720,7 +726,7 @@
     </row>
     <row r="14" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -736,7 +742,7 @@
     </row>
     <row r="15" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -752,7 +758,7 @@
     </row>
     <row r="16" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -768,7 +774,7 @@
     </row>
     <row r="17" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -784,7 +790,7 @@
     </row>
     <row r="18" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -800,7 +806,7 @@
     </row>
     <row r="19" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -816,7 +822,7 @@
     </row>
     <row r="20" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -832,7 +838,7 @@
     </row>
     <row r="21" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -848,7 +854,7 @@
     </row>
     <row r="22" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -864,7 +870,7 @@
     </row>
     <row r="23" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -880,7 +886,7 @@
     </row>
     <row r="24" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -896,7 +902,7 @@
     </row>
     <row r="25" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -916,5 +922,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mui-master/1.0/FirstFloor.ModernUI/CaoJin.HNFinanceTool/App/excel/mould1.xlsx
+++ b/mui-master/1.0/FirstFloor.ModernUI/CaoJin.HNFinanceTool/App/excel/mould1.xlsx
@@ -16,56 +16,57 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目编码</t>
+  </si>
+  <si>
+    <t>单项工程名称</t>
+  </si>
+  <si>
+    <t>单项工程编码</t>
+  </si>
+  <si>
+    <t>费用类别</t>
+  </si>
+  <si>
+    <t>WBS识别码</t>
+  </si>
+  <si>
+    <t>概算数</t>
+  </si>
+  <si>
+    <t>内控系数</t>
+  </si>
+  <si>
+    <t>可抵扣增值税比例</t>
+  </si>
+  <si>
+    <t>总投资预算（含税）</t>
+  </si>
+  <si>
+    <t>总投资预算（不含税）</t>
+  </si>
+  <si>
+    <t>内控系数上限</t>
+  </si>
+  <si>
+    <t>可抵扣增值税比例上限</t>
+  </si>
+  <si>
+    <t>可抵扣增值税比例下限</t>
+  </si>
+  <si>
     <t>电网基建概算数导入模版</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>项目编码</t>
-  </si>
-  <si>
-    <t>单项工程名称</t>
-  </si>
-  <si>
-    <t>单项工程编码</t>
-  </si>
-  <si>
-    <t>费用类别</t>
-  </si>
-  <si>
-    <t>WBS识别码</t>
-  </si>
-  <si>
-    <t>概算数</t>
-  </si>
-  <si>
-    <t>内控系数</t>
-  </si>
-  <si>
-    <t>可抵扣增值税比例</t>
-  </si>
-  <si>
-    <t>总投资预算（含税）</t>
-  </si>
-  <si>
-    <t>总投资预算（不含税）</t>
-  </si>
-  <si>
-    <t>内控系数上限</t>
-  </si>
-  <si>
-    <t>可抵扣增值税比例上限</t>
-  </si>
-  <si>
-    <t>可抵扣增值税比例下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -86,6 +87,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -165,17 +174,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -487,70 +496,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -566,7 +575,7 @@
     </row>
     <row r="4" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -582,7 +591,7 @@
     </row>
     <row r="5" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -598,7 +607,7 @@
     </row>
     <row r="6" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -614,7 +623,7 @@
     </row>
     <row r="7" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -630,7 +639,7 @@
     </row>
     <row r="8" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -646,7 +655,7 @@
     </row>
     <row r="9" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -662,7 +671,7 @@
     </row>
     <row r="10" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -678,7 +687,7 @@
     </row>
     <row r="11" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -694,7 +703,7 @@
     </row>
     <row r="12" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -710,7 +719,7 @@
     </row>
     <row r="13" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -726,7 +735,7 @@
     </row>
     <row r="14" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -742,7 +751,7 @@
     </row>
     <row r="15" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -758,7 +767,7 @@
     </row>
     <row r="16" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -774,7 +783,7 @@
     </row>
     <row r="17" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -790,7 +799,7 @@
     </row>
     <row r="18" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -806,7 +815,7 @@
     </row>
     <row r="19" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -822,7 +831,7 @@
     </row>
     <row r="20" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -838,7 +847,7 @@
     </row>
     <row r="21" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -854,7 +863,7 @@
     </row>
     <row r="22" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -870,7 +879,7 @@
     </row>
     <row r="23" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -886,7 +895,7 @@
     </row>
     <row r="24" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -902,7 +911,7 @@
     </row>
     <row r="25" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>

--- a/mui-master/1.0/FirstFloor.ModernUI/CaoJin.HNFinanceTool/App/excel/mould1.xlsx
+++ b/mui-master/1.0/FirstFloor.ModernUI/CaoJin.HNFinanceTool/App/excel/mould1.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>电网基建概算数导入模版</t>
+  </si>
+  <si>
     <t>项目名称</t>
   </si>
   <si>
@@ -56,17 +59,13 @@
   </si>
   <si>
     <t>可抵扣增值税比例下限</t>
-  </si>
-  <si>
-    <t>电网基建概算数导入模版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -87,14 +86,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -174,17 +165,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -496,70 +487,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -575,7 +566,7 @@
     </row>
     <row r="4" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -591,7 +582,7 @@
     </row>
     <row r="5" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -607,7 +598,7 @@
     </row>
     <row r="6" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -623,7 +614,7 @@
     </row>
     <row r="7" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -639,7 +630,7 @@
     </row>
     <row r="8" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -655,7 +646,7 @@
     </row>
     <row r="9" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -671,7 +662,7 @@
     </row>
     <row r="10" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -687,7 +678,7 @@
     </row>
     <row r="11" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -703,7 +694,7 @@
     </row>
     <row r="12" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -719,7 +710,7 @@
     </row>
     <row r="13" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -735,7 +726,7 @@
     </row>
     <row r="14" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -751,7 +742,7 @@
     </row>
     <row r="15" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -767,7 +758,7 @@
     </row>
     <row r="16" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -783,7 +774,7 @@
     </row>
     <row r="17" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -799,7 +790,7 @@
     </row>
     <row r="18" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -815,7 +806,7 @@
     </row>
     <row r="19" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -831,7 +822,7 @@
     </row>
     <row r="20" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -847,7 +838,7 @@
     </row>
     <row r="21" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -863,7 +854,7 @@
     </row>
     <row r="22" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -879,7 +870,7 @@
     </row>
     <row r="23" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -895,7 +886,7 @@
     </row>
     <row r="24" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -911,7 +902,7 @@
     </row>
     <row r="25" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
